--- a/electronics/receiver/FilterDesign/145MHz BPF DesignV3.xlsx
+++ b/electronics/receiver/FilterDesign/145MHz BPF DesignV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\pi-transceiver\NewPIT\pi-transceiver\electronics\receiver\FilterDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ABCDFE-F6FF-496F-8D6E-C8750AD7F237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C995C6-97F5-41F1-AEF5-159BEBE2ABCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="24780" windowHeight="15600" firstSheet="2" activeTab="5" xr2:uid="{058A02D5-4906-48D4-ADA1-9B0F3222F64A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{058A02D5-4906-48D4-ADA1-9B0F3222F64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -1071,9 +1071,6 @@
     <t>C0</t>
   </si>
   <si>
-    <t>Not relevant any more</t>
-  </si>
-  <si>
     <t>3dB k and q values</t>
   </si>
   <si>
@@ -1991,6 +1988,9 @@
   </si>
   <si>
     <t>Tolerance</t>
+  </si>
+  <si>
+    <t>To be used for stray C from 50 ohm tracks</t>
   </si>
 </sst>
 </file>
@@ -2940,7 +2940,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4633,782 +4633,782 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5442,22 +5442,22 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J1" t="s">
         <v>433</v>
-      </c>
-      <c r="D1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J1" t="s">
-        <v>434</v>
       </c>
       <c r="K1" t="s">
         <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -5709,7 +5709,7 @@
         <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J28" t="str">
         <f>_xlfn.TEXTBEFORE(A28,E28)</f>
@@ -5759,7 +5759,7 @@
         <v>171</v>
       </c>
       <c r="E30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="2"/>
@@ -5787,7 +5787,7 @@
         <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="2"/>
@@ -5815,7 +5815,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="2"/>
@@ -5843,7 +5843,7 @@
         <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="2"/>
@@ -5871,7 +5871,7 @@
         <v>173</v>
       </c>
       <c r="E34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="2"/>
@@ -5899,7 +5899,7 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="2"/>
@@ -5927,7 +5927,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="2"/>
@@ -5977,7 +5977,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="2"/>
@@ -6027,7 +6027,7 @@
         <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="2"/>
@@ -6077,7 +6077,7 @@
         <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" ref="J42:J65" si="5">_xlfn.TEXTBEFORE(A42,E42)</f>
@@ -6105,7 +6105,7 @@
         <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="5"/>
@@ -6155,7 +6155,7 @@
         <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="5"/>
@@ -6205,7 +6205,7 @@
         <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="5"/>
@@ -6233,7 +6233,7 @@
         <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="5"/>
@@ -6280,10 +6280,10 @@
         <v xml:space="preserve">  &lt;R R4 1 1220 330 15 -26 0 1 "20000 Ohm" 1 "26.85" 0 "0.0" 0 "0.0" 0 "26.85" 0 "european" 0&gt;</v>
       </c>
       <c r="D50" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="5"/>
@@ -6330,10 +6330,10 @@
         <v xml:space="preserve">  &lt;C C20 1 1290 310 17 -26 0 1 "17.34p" 1 "" 0 "neutral" 0&gt;</v>
       </c>
       <c r="D52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="5"/>
@@ -6361,7 +6361,7 @@
         <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="5"/>
@@ -6389,7 +6389,7 @@
         <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="5"/>
@@ -6417,7 +6417,7 @@
         <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="5"/>
@@ -6445,7 +6445,7 @@
         <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="5"/>
@@ -6473,7 +6473,7 @@
         <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="5"/>
@@ -6501,7 +6501,7 @@
         <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="5"/>
@@ -6529,7 +6529,7 @@
         <v>183</v>
       </c>
       <c r="E59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="5"/>
@@ -6557,7 +6557,7 @@
         <v>169</v>
       </c>
       <c r="E60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="5"/>
@@ -6582,10 +6582,10 @@
         <v xml:space="preserve">  &lt;C C21 1 1390 400 -30 -50 0 0 "652.8f" 1 "" 0 "neutral" 0&gt;</v>
       </c>
       <c r="D61" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="5"/>
@@ -6610,10 +6610,10 @@
         <v xml:space="preserve">  &lt;C C22 1 1470 400 -30 -50 0 0 "4.825p" 1 "" 0 "neutral" 0&gt;</v>
       </c>
       <c r="D62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="5"/>
@@ -6641,7 +6641,7 @@
         <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="5"/>
@@ -6669,7 +6669,7 @@
         <v>170</v>
       </c>
       <c r="E64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="5"/>
@@ -6694,10 +6694,10 @@
         <v xml:space="preserve">  &lt;C C19 1 1250 510 17 -26 0 1 "17.34p" 1 "" 0 "neutral" 0&gt;</v>
       </c>
       <c r="D65" t="s">
+        <v>425</v>
+      </c>
+      <c r="E65" t="s">
         <v>426</v>
-      </c>
-      <c r="E65" t="s">
-        <v>427</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="5"/>
@@ -8618,7 +8618,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D12">
         <v>2.9340000000000002</v>
@@ -8838,8 +8838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ABC30D-1BDC-47E7-8828-1346B6C12530}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F51" activeCellId="1" sqref="F24 F51"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8849,61 +8849,61 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G9" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="G10" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G13" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F17">
         <v>66.3</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -8919,13 +8919,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F19">
         <f>F17*(1-(C17/C18)^3)*(1-(C19/(2*C20))^2)</f>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C20">
         <v>22</v>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F21">
         <f>F19/F17</f>
@@ -8951,42 +8951,42 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8996,25 +8996,25 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F47" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -9034,7 +9034,7 @@
   <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9052,12 +9052,12 @@
         <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R2" t="s">
         <v>232</v>
@@ -9714,21 +9714,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6DD1F5-9175-43F7-9BB8-EE5C8FF0CCD2}">
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>245</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9750,7 +9751,7 @@
     <row r="9" spans="2:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>226</v>
       </c>
@@ -9759,40 +9760,46 @@
       </c>
       <c r="D20">
         <f>D$24*D$25/(D$24+D$25+D$26)</f>
-        <v>4.238532110091743</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="F20">
-        <f>D20</f>
-        <v>4.238532110091743</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21">
         <f>D$25*D$26/(D$24+D$25+D$26)</f>
-        <v>0.64220183486238525</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F22" si="0">D21</f>
-        <v>0.64220183486238525</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.33496100000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>106</v>
       </c>
       <c r="D22">
         <f>D$24*D$26/(D$24+D$25+D$26)</f>
-        <v>3.7844036697247705</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>3.7844036697247705</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="H22">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>227</v>
       </c>
@@ -9800,35 +9807,47 @@
         <v>228</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>2.4</v>
       </c>
       <c r="F24">
         <f>(F20*F21+F20*F22+F21*F22)/F21</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.51941688733912306</v>
+      </c>
+      <c r="H24">
+        <f>(H20*H21+H20*H22+H21*H22)/H21</f>
+        <v>81.902102102102106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>229</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="F25">
         <f>(F20*F21+F20*F22+F21*F22)/F22</f>
-        <v>5.5999999999999988</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.86992199999999997</v>
+      </c>
+      <c r="H25">
+        <f>(H20*H21+H20*H22+H21*H22)/H22</f>
+        <v>5.5659999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>230</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F26">
         <f>(F20*F21+F20*F22+F21*F22)/F20</f>
-        <v>4.9999999999999991</v>
+        <v>0.86992199999999997</v>
+      </c>
+      <c r="H26">
+        <f>(H20*H21+H20*H22+H21*H22)/H20</f>
+        <v>5.5659999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9842,7 +9861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B10FE5-0BD5-48C8-BDEB-22E4212BC1A1}">
   <dimension ref="A1:P1536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -9863,13 +9882,13 @@
         <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J2" s="17">
         <f>Calcs!J17</f>
@@ -9897,7 +9916,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I3" t="str">
         <f>N16</f>
@@ -9925,7 +9944,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I4" t="str">
         <f>O16</f>
@@ -9991,7 +10010,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J8">
         <f>(J7-J2)/J2</f>
@@ -10020,7 +10039,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -10035,7 +10054,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -10045,13 +10064,13 @@
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" t="s">
         <v>256</v>
-      </c>
-      <c r="D13" t="s">
-        <v>257</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -10060,7 +10079,7 @@
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I13" t="s">
         <v>141</v>
@@ -10078,7 +10097,7 @@
         <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -10091,7 +10110,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B16" s="6" t="str">
         <f t="shared" ref="B16:B54" si="1">REPLACE(A16,FIND("p",A16),1,".")</f>
@@ -10139,7 +10158,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10209,7 +10228,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10296,7 +10315,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10383,7 +10402,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B25" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10499,7 +10518,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B29" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10557,7 +10576,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B31" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10586,7 +10605,7 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B32" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10673,7 +10692,7 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B35" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10760,7 +10779,7 @@
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B38" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10818,7 +10837,7 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B40" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10847,7 +10866,7 @@
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B41" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10905,7 +10924,7 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B43" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10934,7 +10953,7 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B44" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10963,7 +10982,7 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B45" s="6" t="str">
         <f t="shared" si="1"/>
@@ -10992,7 +11011,7 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B46" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11021,7 +11040,7 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B47" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11050,7 +11069,7 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B48" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11079,7 +11098,7 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B49" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11108,7 +11127,7 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B50" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11137,7 +11156,7 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B51" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11166,7 +11185,7 @@
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11195,7 +11214,7 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B53" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11224,7 +11243,7 @@
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B54" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11304,7 +11323,7 @@
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B57">
         <f>Caps^2</f>
@@ -43882,7 +43901,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44166,10 +44185,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" t="s">
         <v>437</v>
-      </c>
-      <c r="F20" t="s">
-        <v>438</v>
       </c>
       <c r="J20" t="str">
         <f>(IF($B$20="",J18, J$17*2))</f>
@@ -44194,7 +44213,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J21" t="str">
         <f>(IF($B$20="",J19, J$17*2))</f>
@@ -44223,7 +44242,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>40</v>
@@ -44238,7 +44257,7 @@
         <v>183</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
@@ -44257,7 +44276,7 @@
         <v>169</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
@@ -44272,7 +44291,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>106</v>
@@ -44290,7 +44309,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>171</v>
@@ -44302,13 +44321,13 @@
         <v>181</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>172</v>
@@ -44320,13 +44339,13 @@
         <v>182</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N28" s="3"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J30">
         <v>18</v>
@@ -44343,7 +44362,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J31">
         <f>(J32*J30-J30*J34)/(J34-J32-J30)</f>
@@ -44364,7 +44383,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J32">
         <v>8.1999999999999993</v>
@@ -44381,7 +44400,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J34">
         <f>Cn-J20*J21/(J20+J21)-K20*K21/(K20+K21)</f>
@@ -44405,7 +44424,7 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J35">
         <f>J32+(J30*J31/(J30+J31))</f>
@@ -44434,7 +44453,7 @@
         <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J37">
         <f>(22+5.5)/2</f>
@@ -44479,34 +44498,34 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -44827,7 +44846,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B25" s="14">
         <f>Calcs!$H$8</f>
@@ -44939,7 +44958,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" s="14">
         <f>Calcs!M31</f>
@@ -44955,7 +44974,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B33" s="14">
         <f>Calcs!M32</f>
@@ -44971,7 +44990,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B34" s="14" t="str">
         <f>Calcs!N20</f>
@@ -44987,7 +45006,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B35" s="14" t="str">
         <f>Calcs!N21</f>

--- a/electronics/receiver/FilterDesign/145MHz BPF DesignV3.xlsx
+++ b/electronics/receiver/FilterDesign/145MHz BPF DesignV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\pi-transceiver\NewPIT\pi-transceiver\electronics\receiver\FilterDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C995C6-97F5-41F1-AEF5-159BEBE2ABCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB051473-0EDE-4FCF-8A6C-90A5EEE70BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{058A02D5-4906-48D4-ADA1-9B0F3222F64A}"/>
   </bookViews>
@@ -9717,7 +9717,7 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9763,7 +9763,7 @@
         <v>0.66666666666666652</v>
       </c>
       <c r="F20">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="H20">
         <v>4.9000000000000004</v>
@@ -9778,7 +9778,7 @@
         <v>0.41666666666666663</v>
       </c>
       <c r="F21">
-        <v>0.33496100000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H21">
         <v>0.33300000000000002</v>
@@ -9793,7 +9793,7 @@
         <v>0.66666666666666652</v>
       </c>
       <c r="F22">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="H22">
         <v>4.9000000000000004</v>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="F24">
         <f>(F20*F21+F20*F22+F21*F22)/F21</f>
-        <v>0.51941688733912306</v>
+        <v>0.50119402985074635</v>
       </c>
       <c r="H24">
         <f>(H20*H21+H20*H22+H21*H22)/H21</f>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="F25">
         <f>(F20*F21+F20*F22+F21*F22)/F22</f>
-        <v>0.86992199999999997</v>
+        <v>0.49382352941176472</v>
       </c>
       <c r="H25">
         <f>(H20*H21+H20*H22+H21*H22)/H22</f>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="F26">
         <f>(F20*F21+F20*F22+F21*F22)/F20</f>
-        <v>0.86992199999999997</v>
+        <v>2.0987500000000003</v>
       </c>
       <c r="H26">
         <f>(H20*H21+H20*H22+H21*H22)/H20</f>
@@ -43901,7 +43901,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
